--- a/数据整理/stocks/A股/上证主板/603786-科博达.xlsx
+++ b/数据整理/stocks/A股/上证主板/603786-科博达.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.31</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.37</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.22</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.43</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5458</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006478</t>
+          <t>001437</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛多因子策略优选股票</t>
+          <t>易方达瑞享灵活配置混合I</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001437</t>
+          <t>001438</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合I</t>
+          <t>易方达瑞享灵活配置混合E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.52</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.53</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001438</t>
+          <t>006478</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合E</t>
+          <t>长盛多因子策略优选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -688,15 +758,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>58.88</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.30</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603786-科博达.xlsx
+++ b/数据整理/stocks/A股/上证主板/603786-科博达.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5787</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603786-科博达.xlsx
+++ b/数据整理/stocks/A股/上证主板/603786-科博达.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603786-科博达.xlsx
+++ b/数据整理/stocks/A股/上证主板/603786-科博达.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,14 +977,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.65</v>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6062</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -972,14 +1015,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.29</v>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -988,13 +1053,513 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005371</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加心悦灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005372</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加心悦灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603786-科博达.xlsx
+++ b/数据整理/stocks/A股/上证主板/603786-科博达.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1474,7 +1475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,17 +1486,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1505,14 +1526,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.9</v>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9226</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1521,14 +1564,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.65</v>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1537,14 +1602,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.29</v>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1553,13 +1640,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603786-科博达.xlsx
+++ b/数据整理/stocks/A股/上证主板/603786-科博达.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.35</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.9</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.29</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -566,6 +583,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5437</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3881</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -849,7 +1188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1397,7 +1736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1529,7 +1868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1737,7 +2076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603786-科博达.xlsx
+++ b/数据整理/stocks/A股/上证主板/603786-科博达.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>1.99</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>2.35</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.9</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.29</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -583,6 +600,932 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5639</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014829</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159620</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证智选500成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014830</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014556</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富荣量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014557</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富荣量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -904,7 +1847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1188,7 +2131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1736,7 +2679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1868,7 +2811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2076,7 +3019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
